--- a/file_export/nang_luong/totrinh_form.xlsx
+++ b/file_export/nang_luong/totrinh_form.xlsx
@@ -18,13 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
-  </si>
-  <si>
     <t>***</t>
-  </si>
-  <si>
-    <t>ĐOÀN TNCS HỒ CHÍ MINH</t>
   </si>
   <si>
     <t>BAN TỔ CHỨC</t>
@@ -125,6 +119,12 @@
   </si>
   <si>
     <t xml:space="preserve">chuẩn nâng phụ cấp thâm niên nhà giáo đợt .....năm </t>
+  </si>
+  <si>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
   </si>
 </sst>
 </file>
@@ -206,49 +206,49 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,245 +554,257 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="F25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A16:I16"/>
@@ -800,18 +812,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
